--- a/tests/5_predictions_PRIX_EXP_POMME_BRAEBURN_FRANCE_170_220G_CAT_I_PLATEAU_1RG.xlsx
+++ b/tests/5_predictions_PRIX_EXP_POMME_BRAEBURN_FRANCE_170_220G_CAT_I_PLATEAU_1RG.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,16 +467,24 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45509</v>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+        <v>45656</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.149999976158142</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.200000047683716</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.200000047683716</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.200000047683716</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45516</v>
+        <v>45509</v>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
@@ -485,7 +493,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45523</v>
+        <v>45516</v>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
@@ -494,7 +502,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45530</v>
+        <v>45523</v>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
@@ -503,7 +511,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45537</v>
+        <v>45530</v>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
@@ -512,7 +520,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45544</v>
+        <v>45537</v>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
@@ -521,7 +529,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45551</v>
+        <v>45544</v>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
@@ -530,7 +538,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45558</v>
+        <v>45551</v>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
@@ -539,7 +547,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45565</v>
+        <v>45558</v>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
@@ -548,7 +556,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45572</v>
+        <v>45565</v>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
@@ -557,7 +565,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45579</v>
+        <v>45572</v>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
@@ -566,7 +574,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45586</v>
+        <v>45579</v>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
@@ -575,7 +583,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45593</v>
+        <v>45586</v>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
@@ -584,7 +592,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45600</v>
+        <v>45593</v>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
@@ -593,7 +601,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45607</v>
+        <v>45600</v>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
@@ -602,7 +610,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45614</v>
+        <v>45607</v>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
@@ -611,7 +619,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45621</v>
+        <v>45614</v>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
@@ -620,82 +628,117 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45628</v>
+        <v>45621</v>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="n">
-        <v>1.149999976158142</v>
-      </c>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45635</v>
+        <v>45628</v>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="n">
-        <v>1.149999976158142</v>
-      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
         <v>1.149999976158142</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45642</v>
+        <v>45635</v>
       </c>
       <c r="B21" t="inlineStr"/>
-      <c r="C21" t="n">
-        <v>1.149999976158142</v>
-      </c>
+      <c r="C21" t="inlineStr"/>
       <c r="D21" t="n">
         <v>1.149999976158142</v>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>1.149999976158142</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45649</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1.149999976158142</v>
-      </c>
+        <v>45642</v>
+      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
         <v>1.149999976158142</v>
       </c>
-      <c r="D22" t="inlineStr"/>
+      <c r="D22" t="n">
+        <v>1.149999976158142</v>
+      </c>
       <c r="E22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45663</v>
+        <v>45649</v>
       </c>
       <c r="B23" t="n">
         <v>1.149999976158142</v>
       </c>
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" t="n">
+        <v>1.149999976158142</v>
+      </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45670</v>
-      </c>
-      <c r="B24" t="inlineStr"/>
+        <v>45663</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1.149999976158142</v>
+      </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45677</v>
+        <v>45670</v>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>1.340000033378601</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="n">
+        <v>1.340000033378601</v>
+      </c>
+      <c r="E26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="n">
+        <v>1.340000033378601</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1.340000033378601</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -708,7 +751,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -740,338 +783,380 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45509</v>
+        <v>45656</v>
       </c>
       <c r="B2" t="n">
-        <v>1.178673028945923</v>
+        <v>1.145988345146179</v>
       </c>
       <c r="C2" t="n">
-        <v>1.182955741882324</v>
+        <v>1.179671049118042</v>
       </c>
       <c r="D2" t="n">
-        <v>1.190081000328064</v>
+        <v>1.089330911636353</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45516</v>
+        <v>45509</v>
       </c>
       <c r="B3" t="n">
-        <v>1.178673028945923</v>
+        <v>1.146735787391663</v>
       </c>
       <c r="C3" t="n">
-        <v>1.182955741882324</v>
+        <v>1.19306206703186</v>
       </c>
       <c r="D3" t="n">
-        <v>1.192624092102051</v>
+        <v>1.181446313858032</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45523</v>
+        <v>45516</v>
       </c>
       <c r="B4" t="n">
-        <v>1.178865790367126</v>
+        <v>1.146735787391663</v>
       </c>
       <c r="C4" t="n">
-        <v>1.180776715278625</v>
+        <v>1.192975044250488</v>
       </c>
       <c r="D4" t="n">
-        <v>1.19543182849884</v>
+        <v>1.181446313858032</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45530</v>
+        <v>45523</v>
       </c>
       <c r="B5" t="n">
-        <v>1.146323800086975</v>
+        <v>1.135164380073547</v>
       </c>
       <c r="C5" t="n">
-        <v>1.127622723579407</v>
+        <v>1.152614593505859</v>
       </c>
       <c r="D5" t="n">
-        <v>1.166219353675842</v>
+        <v>1.153500556945801</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45537</v>
+        <v>45530</v>
       </c>
       <c r="B6" t="n">
-        <v>1.161145091056824</v>
+        <v>1.135164380073547</v>
       </c>
       <c r="C6" t="n">
-        <v>1.164691805839539</v>
+        <v>1.153526306152344</v>
       </c>
       <c r="D6" t="n">
-        <v>1.186206221580505</v>
+        <v>1.153500556945801</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45544</v>
+        <v>45537</v>
       </c>
       <c r="B7" t="n">
-        <v>1.163893342018127</v>
+        <v>1.077728033065796</v>
       </c>
       <c r="C7" t="n">
-        <v>1.17607045173645</v>
+        <v>1.15573263168335</v>
       </c>
       <c r="D7" t="n">
-        <v>1.195004820823669</v>
+        <v>1.158913373947144</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45551</v>
+        <v>45544</v>
       </c>
       <c r="B8" t="n">
-        <v>1.178865790367126</v>
+        <v>1.082347750663757</v>
       </c>
       <c r="C8" t="n">
-        <v>1.180713534355164</v>
+        <v>1.123537302017212</v>
       </c>
       <c r="D8" t="n">
-        <v>1.192888736724854</v>
+        <v>1.156066179275513</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45558</v>
+        <v>45551</v>
       </c>
       <c r="B9" t="n">
-        <v>1.19530463218689</v>
+        <v>1.109008431434631</v>
       </c>
       <c r="C9" t="n">
-        <v>1.246123433113098</v>
+        <v>1.164816379547119</v>
       </c>
       <c r="D9" t="n">
-        <v>1.21684992313385</v>
+        <v>1.170339107513428</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45565</v>
+        <v>45558</v>
       </c>
       <c r="B10" t="n">
-        <v>1.169714689254761</v>
+        <v>1.114386320114136</v>
       </c>
       <c r="C10" t="n">
-        <v>1.187148332595825</v>
+        <v>1.165024280548096</v>
       </c>
       <c r="D10" t="n">
-        <v>1.188886880874634</v>
+        <v>1.170012593269348</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45572</v>
+        <v>45565</v>
       </c>
       <c r="B11" t="n">
-        <v>1.209969401359558</v>
+        <v>1.073015213012695</v>
       </c>
       <c r="C11" t="n">
-        <v>1.214446425437927</v>
+        <v>1.205574989318848</v>
       </c>
       <c r="D11" t="n">
-        <v>1.194627404212952</v>
+        <v>1.171068549156189</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45579</v>
+        <v>45572</v>
       </c>
       <c r="B12" t="n">
-        <v>1.176110744476318</v>
+        <v>1.144371628761292</v>
       </c>
       <c r="C12" t="n">
-        <v>1.161267399787903</v>
+        <v>1.206820249557495</v>
       </c>
       <c r="D12" t="n">
-        <v>1.192512273788452</v>
+        <v>1.15636944770813</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45586</v>
+        <v>45579</v>
       </c>
       <c r="B13" t="n">
-        <v>1.179458379745483</v>
+        <v>1.091317057609558</v>
       </c>
       <c r="C13" t="n">
-        <v>1.19843316078186</v>
+        <v>1.213003158569336</v>
       </c>
       <c r="D13" t="n">
-        <v>1.208808898925781</v>
+        <v>1.148226499557495</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45593</v>
+        <v>45586</v>
       </c>
       <c r="B14" t="n">
-        <v>1.209730625152588</v>
+        <v>1.091889262199402</v>
       </c>
       <c r="C14" t="n">
-        <v>1.232298851013184</v>
+        <v>1.203769207000732</v>
       </c>
       <c r="D14" t="n">
-        <v>1.221835613250732</v>
+        <v>1.144737362861633</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45600</v>
+        <v>45593</v>
       </c>
       <c r="B15" t="n">
-        <v>1.189501643180847</v>
+        <v>1.182500004768372</v>
       </c>
       <c r="C15" t="n">
-        <v>1.184652090072632</v>
+        <v>1.2022385597229</v>
       </c>
       <c r="D15" t="n">
-        <v>1.204230785369873</v>
+        <v>1.156109571456909</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45607</v>
+        <v>45600</v>
       </c>
       <c r="B16" t="n">
-        <v>1.163974046707153</v>
+        <v>1.139278769493103</v>
       </c>
       <c r="C16" t="n">
-        <v>1.158179879188538</v>
+        <v>1.182393550872803</v>
       </c>
       <c r="D16" t="n">
-        <v>1.20609438419342</v>
+        <v>1.153499960899353</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45614</v>
+        <v>45607</v>
       </c>
       <c r="B17" t="n">
-        <v>1.166594624519348</v>
+        <v>1.135837316513062</v>
       </c>
       <c r="C17" t="n">
-        <v>1.19164776802063</v>
+        <v>1.1296067237854</v>
       </c>
       <c r="D17" t="n">
-        <v>1.203238844871521</v>
+        <v>1.155524492263794</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45621</v>
+        <v>45614</v>
       </c>
       <c r="B18" t="n">
-        <v>1.161522388458252</v>
+        <v>1.136853814125061</v>
       </c>
       <c r="C18" t="n">
-        <v>1.181657314300537</v>
+        <v>1.198039293289185</v>
       </c>
       <c r="D18" t="n">
-        <v>1.182566046714783</v>
+        <v>1.181970715522766</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45628</v>
+        <v>45621</v>
       </c>
       <c r="B19" t="n">
-        <v>1.155668497085571</v>
+        <v>1.101579427719116</v>
       </c>
       <c r="C19" t="n">
-        <v>1.192856192588806</v>
+        <v>1.226468086242676</v>
       </c>
       <c r="D19" t="n">
-        <v>1.195925712585449</v>
+        <v>1.15198290348053</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45635</v>
+        <v>45628</v>
       </c>
       <c r="B20" t="n">
-        <v>1.155508160591125</v>
+        <v>1.151707768440247</v>
       </c>
       <c r="C20" t="n">
-        <v>1.167672276496887</v>
+        <v>1.238756418228149</v>
       </c>
       <c r="D20" t="n">
-        <v>1.16925036907196</v>
+        <v>1.183753728866577</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45642</v>
+        <v>45635</v>
       </c>
       <c r="B21" t="n">
-        <v>1.149437665939331</v>
+        <v>1.134683728218079</v>
       </c>
       <c r="C21" t="n">
-        <v>1.160380363464355</v>
+        <v>1.217398166656494</v>
       </c>
       <c r="D21" t="n">
-        <v>1.16396951675415</v>
+        <v>1.143734693527222</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45649</v>
+        <v>45642</v>
       </c>
       <c r="B22" t="n">
-        <v>1.153355836868286</v>
+        <v>1.133702993392944</v>
       </c>
       <c r="C22" t="n">
-        <v>1.235137581825256</v>
+        <v>1.21961784362793</v>
       </c>
       <c r="D22" t="n">
-        <v>1.219194173812866</v>
+        <v>1.144376277923584</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45663</v>
+        <v>45649</v>
       </c>
       <c r="B23" t="n">
-        <v>1.1762375831604</v>
+        <v>1.137328743934631</v>
       </c>
       <c r="C23" t="n">
-        <v>1.194101691246033</v>
+        <v>1.154288530349731</v>
       </c>
       <c r="D23" t="n">
-        <v>1.186719059944153</v>
+        <v>1.105060577392578</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45670</v>
+        <v>45663</v>
       </c>
       <c r="B24" t="n">
-        <v>1.13222599029541</v>
+        <v>1.144042015075684</v>
       </c>
       <c r="C24" t="n">
-        <v>1.199747443199158</v>
+        <v>1.177647352218628</v>
       </c>
       <c r="D24" t="n">
-        <v>1.229164481163025</v>
+        <v>1.089154720306396</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.13609778881073</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.20677924156189</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.164482355117798</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
         <v>45677</v>
       </c>
-      <c r="B25" t="n">
-        <v>1.166885495185852</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1.225344300270081</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1.197527050971985</v>
+      <c r="B26" t="n">
+        <v>1.13031542301178</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.207961797714233</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.168323278427124</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1.141495108604431</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.202470541000366</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.130698680877686</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1.1707683801651</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.205708503723145</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.130937218666077</v>
       </c>
     </row>
   </sheetData>

--- a/tests/5_predictions_PRIX_EXP_POMME_BRAEBURN_FRANCE_170_220G_CAT_I_PLATEAU_1RG.xlsx
+++ b/tests/5_predictions_PRIX_EXP_POMME_BRAEBURN_FRANCE_170_220G_CAT_I_PLATEAU_1RG.xlsx
@@ -451,17 +451,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>PRIX EXP POMME BRAEBURN FRANCE 170/220G CAT.I PLATEAU 1RG_S+1</t>
+          <t>PRIX EXP POMME BRAEBURN FRANCE 170/220G CAT.I PLATEAU 1RG_S+1_class</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>PRIX EXP POMME BRAEBURN FRANCE 170/220G CAT.I PLATEAU 1RG_S+2</t>
+          <t>PRIX EXP POMME BRAEBURN FRANCE 170/220G CAT.I PLATEAU 1RG_S+2_class</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>PRIX EXP POMME BRAEBURN FRANCE 170/220G CAT.I PLATEAU 1RG_S+3</t>
+          <t>PRIX EXP POMME BRAEBURN FRANCE 170/220G CAT.I PLATEAU 1RG_S+3_class</t>
         </is>
       </c>
     </row>
@@ -473,13 +473,13 @@
         <v>1.149999976158142</v>
       </c>
       <c r="C2" t="n">
-        <v>1.200000047683716</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>1.200000047683716</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>1.200000047683716</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -487,163 +487,269 @@
         <v>45509</v>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
         <v>45516</v>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
         <v>45523</v>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
         <v>45530</v>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
         <v>45537</v>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
         <v>45544</v>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
         <v>45551</v>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
         <v>45558</v>
       </c>
       <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
         <v>45565</v>
       </c>
       <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
         <v>45572</v>
       </c>
       <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
         <v>45579</v>
       </c>
       <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
         <v>45586</v>
       </c>
       <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
         <v>45593</v>
       </c>
       <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
         <v>45600</v>
       </c>
       <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
         <v>45607</v>
       </c>
       <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
         <v>45614</v>
       </c>
       <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
         <v>45621</v>
       </c>
       <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+      <c r="C19" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
         <v>45628</v>
       </c>
       <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
+      <c r="C20" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2</v>
+      </c>
       <c r="E20" t="n">
-        <v>1.149999976158142</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -651,12 +757,14 @@
         <v>45635</v>
       </c>
       <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
       <c r="D21" t="n">
-        <v>1.149999976158142</v>
+        <v>4</v>
       </c>
       <c r="E21" t="n">
-        <v>1.149999976158142</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -665,12 +773,14 @@
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>1.149999976158142</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>1.149999976158142</v>
-      </c>
-      <c r="E22" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -680,10 +790,14 @@
         <v>1.149999976158142</v>
       </c>
       <c r="C23" t="n">
-        <v>1.149999976158142</v>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -692,19 +806,29 @@
       <c r="B24" t="n">
         <v>1.149999976158142</v>
       </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="C24" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
         <v>45670</v>
       </c>
       <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
+      <c r="C25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2</v>
+      </c>
       <c r="E25" t="n">
-        <v>1.340000033378601</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -712,11 +836,15 @@
         <v>45677</v>
       </c>
       <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" t="n">
+        <v>2</v>
+      </c>
       <c r="D26" t="n">
-        <v>1.340000033378601</v>
-      </c>
-      <c r="E26" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -724,10 +852,14 @@
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="n">
-        <v>1.340000033378601</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -736,9 +868,15 @@
       <c r="B28" t="n">
         <v>1.340000033378601</v>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="C28" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -786,13 +924,13 @@
         <v>45656</v>
       </c>
       <c r="B2" t="n">
-        <v>1.145988345146179</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.179671049118042</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1.089330911636353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -800,13 +938,13 @@
         <v>45509</v>
       </c>
       <c r="B3" t="n">
-        <v>1.146735787391663</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1.19306206703186</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.181446313858032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -814,13 +952,13 @@
         <v>45516</v>
       </c>
       <c r="B4" t="n">
-        <v>1.146735787391663</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1.192975044250488</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1.181446313858032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -828,13 +966,13 @@
         <v>45523</v>
       </c>
       <c r="B5" t="n">
-        <v>1.135164380073547</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.152614593505859</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1.153500556945801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -842,13 +980,13 @@
         <v>45530</v>
       </c>
       <c r="B6" t="n">
-        <v>1.135164380073547</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1.153526306152344</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1.153500556945801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -856,13 +994,13 @@
         <v>45537</v>
       </c>
       <c r="B7" t="n">
-        <v>1.077728033065796</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1.15573263168335</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1.158913373947144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -870,13 +1008,13 @@
         <v>45544</v>
       </c>
       <c r="B8" t="n">
-        <v>1.082347750663757</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1.123537302017212</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1.156066179275513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -884,13 +1022,13 @@
         <v>45551</v>
       </c>
       <c r="B9" t="n">
-        <v>1.109008431434631</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1.164816379547119</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1.170339107513428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -898,13 +1036,13 @@
         <v>45558</v>
       </c>
       <c r="B10" t="n">
-        <v>1.114386320114136</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1.165024280548096</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1.170012593269348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -912,13 +1050,13 @@
         <v>45565</v>
       </c>
       <c r="B11" t="n">
-        <v>1.073015213012695</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.205574989318848</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.171068549156189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -926,13 +1064,13 @@
         <v>45572</v>
       </c>
       <c r="B12" t="n">
-        <v>1.144371628761292</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1.206820249557495</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1.15636944770813</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -940,13 +1078,13 @@
         <v>45579</v>
       </c>
       <c r="B13" t="n">
-        <v>1.091317057609558</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.213003158569336</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.148226499557495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -954,13 +1092,13 @@
         <v>45586</v>
       </c>
       <c r="B14" t="n">
-        <v>1.091889262199402</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.203769207000732</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.144737362861633</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -968,13 +1106,13 @@
         <v>45593</v>
       </c>
       <c r="B15" t="n">
-        <v>1.182500004768372</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1.2022385597229</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1.156109571456909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -982,13 +1120,13 @@
         <v>45600</v>
       </c>
       <c r="B16" t="n">
-        <v>1.139278769493103</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.182393550872803</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.153499960899353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -996,13 +1134,13 @@
         <v>45607</v>
       </c>
       <c r="B17" t="n">
-        <v>1.135837316513062</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.1296067237854</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.155524492263794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1010,13 +1148,13 @@
         <v>45614</v>
       </c>
       <c r="B18" t="n">
-        <v>1.136853814125061</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1.198039293289185</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1.181970715522766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1024,13 +1162,13 @@
         <v>45621</v>
       </c>
       <c r="B19" t="n">
-        <v>1.101579427719116</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.226468086242676</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.15198290348053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1038,13 +1176,13 @@
         <v>45628</v>
       </c>
       <c r="B20" t="n">
-        <v>1.151707768440247</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.238756418228149</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1.183753728866577</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1052,13 +1190,13 @@
         <v>45635</v>
       </c>
       <c r="B21" t="n">
-        <v>1.134683728218079</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1.217398166656494</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1.143734693527222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1066,13 +1204,13 @@
         <v>45642</v>
       </c>
       <c r="B22" t="n">
-        <v>1.133702993392944</v>
+        <v>-2</v>
       </c>
       <c r="C22" t="n">
-        <v>1.21961784362793</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1.144376277923584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1080,13 +1218,13 @@
         <v>45649</v>
       </c>
       <c r="B23" t="n">
-        <v>1.137328743934631</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>1.154288530349731</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1.105060577392578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1094,13 +1232,13 @@
         <v>45663</v>
       </c>
       <c r="B24" t="n">
-        <v>1.144042015075684</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>1.177647352218628</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1.089154720306396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1108,13 +1246,13 @@
         <v>45670</v>
       </c>
       <c r="B25" t="n">
-        <v>1.13609778881073</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1.20677924156189</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1.164482355117798</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1122,13 +1260,13 @@
         <v>45677</v>
       </c>
       <c r="B26" t="n">
-        <v>1.13031542301178</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1.207961797714233</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1.168323278427124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1136,13 +1274,13 @@
         <v>45684</v>
       </c>
       <c r="B27" t="n">
-        <v>1.141495108604431</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>1.202470541000366</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1.130698680877686</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1150,13 +1288,13 @@
         <v>45691</v>
       </c>
       <c r="B28" t="n">
-        <v>1.1707683801651</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1.205708503723145</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1.130937218666077</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
